--- a/其他資訊_2019_4.xlsx
+++ b/其他資訊_2019_4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="89">
   <si>
     <t>Abe</t>
   </si>
@@ -123,57 +123,60 @@
     <t>Yvette</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>P3</t>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
   <si>
     <t>P5</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>W6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
     <t>NW_count</t>
   </si>
   <si>
@@ -258,22 +261,25 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
     <t>['11:30', '13:30']</t>
   </si>
   <si>
-    <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
+    <t>['11:30']</t>
   </si>
   <si>
     <t>['13:30']</t>
@@ -713,61 +719,61 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="T2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -778,61 +784,61 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -846,58 +852,58 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
         <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -905,64 +911,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -970,64 +976,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
       <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" t="s">
         <v>46</v>
       </c>
-      <c r="N6" t="s">
-        <v>47</v>
-      </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1035,64 +1041,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Q7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
         <v>48</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1100,64 +1106,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
         <v>43</v>
       </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>36</v>
-      </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q8" t="s">
         <v>43</v>
       </c>
       <c r="R8" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" t="s">
         <v>43</v>
-      </c>
-      <c r="U8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1165,64 +1171,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N9" t="s">
         <v>45</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" t="s">
-        <v>48</v>
-      </c>
       <c r="O9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
         <v>37</v>
       </c>
       <c r="U9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1230,64 +1236,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
         <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O10" t="s">
         <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1295,16 +1301,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -1313,43 +1319,43 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q11" t="s">
         <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
         <v>37</v>
@@ -1360,64 +1366,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1425,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
@@ -1434,55 +1440,55 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>37</v>
-      </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="S13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1490,64 +1496,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s">
         <v>36</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1555,64 +1561,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1620,64 +1626,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
         <v>34</v>
       </c>
       <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" t="s">
         <v>43</v>
       </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>40</v>
-      </c>
       <c r="R16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="U16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1685,64 +1691,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" t="s">
         <v>46</v>
       </c>
-      <c r="O17" t="s">
-        <v>38</v>
-      </c>
       <c r="P17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" t="s">
         <v>46</v>
       </c>
-      <c r="T17" t="s">
-        <v>40</v>
-      </c>
       <c r="U17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1750,61 +1756,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="O18" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
         <v>42</v>
       </c>
       <c r="Q18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R18" t="s">
         <v>46</v>
       </c>
       <c r="S18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s">
         <v>45</v>
@@ -1815,64 +1821,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q19" t="s">
         <v>44</v>
       </c>
-      <c r="N19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O19" t="s">
-        <v>42</v>
-      </c>
-      <c r="P19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>46</v>
-      </c>
       <c r="R19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="T19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1880,64 +1886,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s">
         <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1945,64 +1951,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" t="s">
         <v>47</v>
       </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-      <c r="K21" t="s">
-        <v>41</v>
-      </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M21" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="P21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="U21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2010,64 +2016,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" t="s">
-        <v>37</v>
-      </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2075,37 +2081,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J23" t="s">
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
@@ -2114,25 +2120,25 @@
         <v>40</v>
       </c>
       <c r="O23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
         <v>40</v>
       </c>
       <c r="Q23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="U23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2140,64 +2146,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
         <v>36</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="T24" t="s">
         <v>37</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2205,64 +2211,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N25" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="R25" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="U25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2270,40 +2276,40 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N26" t="s">
         <v>43</v>
@@ -2312,22 +2318,22 @@
         <v>37</v>
       </c>
       <c r="P26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="R26" t="s">
         <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2335,58 +2341,58 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>42</v>
+      </c>
+      <c r="N27" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>39</v>
+      </c>
+      <c r="R27" t="s">
         <v>38</v>
       </c>
-      <c r="E27" t="s">
+      <c r="S27" t="s">
         <v>35</v>
-      </c>
-      <c r="F27" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L27" t="s">
-        <v>37</v>
-      </c>
-      <c r="M27" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" t="s">
-        <v>34</v>
-      </c>
-      <c r="O27" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>39</v>
-      </c>
-      <c r="R27" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" t="s">
-        <v>45</v>
       </c>
       <c r="T27" t="s">
         <v>39</v>
@@ -2400,64 +2406,64 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J28" t="s">
         <v>43</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="S28" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2465,64 +2471,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
       </c>
       <c r="F29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>46</v>
       </c>
-      <c r="J29" t="s">
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>35</v>
+      </c>
+      <c r="R29" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" t="s">
         <v>38</v>
       </c>
-      <c r="K29" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" t="s">
+      <c r="T29" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" t="s">
         <v>48</v>
-      </c>
-      <c r="M29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" t="s">
-        <v>48</v>
-      </c>
-      <c r="P29" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>38</v>
-      </c>
-      <c r="R29" t="s">
-        <v>44</v>
-      </c>
-      <c r="S29" t="s">
-        <v>46</v>
-      </c>
-      <c r="T29" t="s">
-        <v>38</v>
-      </c>
-      <c r="U29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2530,64 +2536,64 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M30" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q30" t="s">
         <v>46</v>
       </c>
-      <c r="O30" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>39</v>
-      </c>
       <c r="R30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
         <v>45</v>
       </c>
       <c r="T30" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" t="s">
         <v>45</v>
-      </c>
-      <c r="U30" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2595,64 +2601,64 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" t="s">
         <v>42</v>
       </c>
-      <c r="I31" t="s">
-        <v>46</v>
-      </c>
-      <c r="J31" t="s">
-        <v>38</v>
-      </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="R31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S31" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2660,64 +2666,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I32" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q32" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="R32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="S32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2725,64 +2731,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
         <v>45</v>
       </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s">
         <v>46</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="R33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="T33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="U33" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2790,64 +2796,64 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F34" t="s">
         <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P34" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R34" t="s">
         <v>36</v>
       </c>
       <c r="S34" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s">
         <v>36</v>
       </c>
       <c r="U34" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2855,64 +2861,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s">
         <v>37</v>
       </c>
       <c r="K35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="P35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q35" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R35" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="S35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2930,7 +2936,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2954,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2986,7 +2992,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3018,7 +3024,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3034,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3050,7 +3056,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3098,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3106,7 +3112,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3114,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3146,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3194,7 +3200,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3202,7 +3208,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3220,108 +3226,108 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>0.05672609400324149</v>
+        <v>0.07131280388978931</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.01642335766423358</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>0.01672240802675585</v>
+        <v>0.03177257525083612</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.01669449081803005</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01877133105802048</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>0.175531914893617</v>
+        <v>0.2358156028368794</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>0.09138381201044386</v>
+        <v>0.1253263707571801</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9">
-        <v>0.002816901408450704</v>
+        <v>0.008450704225352112</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10">
-        <v>0.03482587064676617</v>
+        <v>0.06467661691542288</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B11">
-        <v>0.05916030534351145</v>
+        <v>0.07824427480916031</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B12">
-        <v>0.001821493624772313</v>
+        <v>0.01821493624772313</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.006993006993006993</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3329,7 +3335,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3337,7 +3343,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3345,23 +3351,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>0.0811965811965812</v>
+        <v>0.1132478632478632</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18">
-        <v>0.007633587786259542</v>
+        <v>0.02798982188295165</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3369,7 +3375,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3377,7 +3383,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3385,7 +3391,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>0.03703703703703703</v>
@@ -3393,26 +3399,26 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23">
-        <v>0.02790697674418605</v>
+        <v>0.04186046511627907</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24">
-        <v>0.0319634703196347</v>
+        <v>0.045662100456621</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25">
-        <v>0.01030927835051546</v>
+        <v>0.0154639175257732</v>
       </c>
     </row>
   </sheetData>
@@ -3430,7 +3436,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3438,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.075</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3446,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.01359223300970874</v>
+        <v>0.02524271844660194</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3454,7 +3460,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.007936507936507936</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3462,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.075</v>
+        <v>0.1133333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3470,7 +3476,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01359223300970874</v>
+        <v>0.01747572815533981</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3478,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.007936507936507936</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3486,7 +3492,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002197802197802198</v>
+        <v>0.006593406593406593</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3494,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.006696428571428571</v>
+        <v>0.01116071428571429</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3502,7 +3508,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.07666666666666666</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3510,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01359223300970874</v>
+        <v>0.01747572815533981</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3518,7 +3524,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007936507936507936</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3526,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002197802197802198</v>
+        <v>0.004395604395604396</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3534,7 +3540,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006696428571428571</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3542,7 +3548,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.075</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3550,7 +3556,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.01359223300970874</v>
+        <v>0.01747572815533981</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3558,7 +3564,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.007936507936507936</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3566,7 +3572,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>0.002197802197802198</v>
+        <v>0.004395604395604396</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3574,7 +3580,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.006696428571428571</v>
+        <v>0.01116071428571429</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3582,7 +3588,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.07666666666666666</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3590,7 +3596,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.01359223300970874</v>
+        <v>0.02718446601941748</v>
       </c>
     </row>
   </sheetData>
@@ -3608,79 +3614,79 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -3688,79 +3694,79 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>6</v>
-      </c>
-      <c r="R2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
       <c r="Z2">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3783,37 +3789,37 @@
         <v>0</v>
       </c>
       <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -3840,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3860,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3911,16 +3917,16 @@
         <v>0</v>
       </c>
       <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -3928,40 +3934,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -3973,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4000,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4023,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -4053,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -4080,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4103,10 +4109,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4160,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4183,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -4240,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4263,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -4320,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -4328,55 +4334,55 @@
         <v>15</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
         <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4400,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="Z10">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4423,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -4453,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -4480,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -4500,19 +4506,19 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -4551,16 +4557,16 @@
         <v>0</v>
       </c>
       <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12">
         <v>1</v>
       </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -4583,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -4640,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4663,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -4720,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4728,25 +4734,25 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -4755,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4773,10 +4779,10 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -4800,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4823,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -4853,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -4880,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -4903,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -4912,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -4960,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -4983,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -5040,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -5063,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5120,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5128,40 +5134,40 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K20">
         <v>7</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -5173,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5200,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5217,43 +5223,43 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>4</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -5280,48 +5286,48 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G22">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="H22">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="K22">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -5333,10 +5339,10 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -5351,16 +5357,16 @@
         <v>8</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="X22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z22">
-        <v>290</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5398,19 +5404,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5418,19 +5424,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" t="s">
-        <v>82</v>
-      </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5438,19 +5444,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5458,19 +5464,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5481,16 +5487,16 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5501,16 +5507,16 @@
         <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5518,19 +5524,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5538,19 +5544,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5558,19 +5564,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5581,16 +5587,16 @@
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5601,10 +5607,10 @@
         <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
         <v>84</v>
@@ -5618,7 +5624,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>84</v>
@@ -5627,10 +5633,10 @@
         <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5638,19 +5644,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
         <v>84</v>
       </c>
-      <c r="E14" t="s">
-        <v>81</v>
-      </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5658,19 +5664,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5678,19 +5684,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5698,19 +5704,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5718,13 +5724,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>85</v>
@@ -5738,19 +5744,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
         <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5758,10 +5764,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -5778,13 +5784,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
@@ -5804,13 +5810,13 @@
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5818,19 +5824,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5838,10 +5844,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
@@ -5861,16 +5867,16 @@
         <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
         <v>81</v>
       </c>
-      <c r="E25" t="s">
-        <v>79</v>
-      </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5878,19 +5884,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5898,19 +5904,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="C27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>79</v>
-      </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5918,19 +5924,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
         <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5944,13 +5950,13 @@
         <v>81</v>
       </c>
       <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
         <v>83</v>
       </c>
-      <c r="E29" t="s">
-        <v>81</v>
-      </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5958,19 +5964,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5981,16 +5987,16 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5998,10 +6004,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
         <v>84</v>
@@ -6018,19 +6024,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6038,19 +6044,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6067,10 +6073,10 @@
         <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/其他資訊_2019_4.xlsx
+++ b/其他資訊_2019_4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="90">
   <si>
     <t>Abe</t>
   </si>
@@ -123,43 +123,49 @@
     <t>Yvette</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
     <t>P2</t>
   </si>
   <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>P4</t>
   </si>
   <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>P5</t>
+    <t>A3</t>
   </si>
   <si>
     <t>A4</t>
@@ -168,15 +174,9 @@
     <t>W6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>NW_count</t>
   </si>
   <si>
@@ -261,31 +261,34 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '12:00']</t>
+  </si>
+  <si>
     <t>['11:30', '13:00']</t>
   </si>
   <si>
-    <t>['11:30', '12:00']</t>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
   <si>
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['13:30']</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
     <t>['12:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
   </si>
 </sst>
 </file>
@@ -719,58 +722,58 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
         <v>40</v>
@@ -784,61 +787,61 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
         <v>42</v>
       </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -849,7 +852,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>36</v>
@@ -861,49 +864,49 @@
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
         <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
         <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -911,55 +914,55 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s">
         <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
         <v>46</v>
       </c>
       <c r="R5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
         <v>40</v>
@@ -968,7 +971,7 @@
         <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -976,64 +979,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1041,64 +1038,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1109,61 +1100,58 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="S8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" t="s">
-        <v>38</v>
-      </c>
       <c r="T8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1171,64 +1159,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="D9" t="s">
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="R9" t="s">
         <v>46</v>
       </c>
-      <c r="N9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" t="s">
-        <v>42</v>
-      </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1248,52 +1236,46 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q10" t="s">
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
-      </c>
-      <c r="T10" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1304,61 +1286,61 @@
         <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="M11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
-        <v>39</v>
-      </c>
-      <c r="M11" t="s">
-        <v>36</v>
-      </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O11" t="s">
         <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1366,64 +1348,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
         <v>41</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S12" t="s">
         <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1431,10 +1413,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
@@ -1446,49 +1428,49 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s">
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L13" t="s">
         <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q13" t="s">
         <v>34</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1496,64 +1478,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L14" t="s">
         <v>34</v>
       </c>
       <c r="M14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O14" t="s">
         <v>34</v>
       </c>
       <c r="P14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1561,64 +1543,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" t="s">
-        <v>46</v>
-      </c>
       <c r="S15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1629,61 +1605,61 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="N16" t="s">
         <v>36</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="R16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="T16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1697,58 +1673,46 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
         <v>42</v>
       </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="J17" t="s">
         <v>42</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
       <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" t="s">
         <v>45</v>
       </c>
-      <c r="L17" t="s">
-        <v>46</v>
-      </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
         <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q17" t="s">
-        <v>46</v>
-      </c>
-      <c r="R17" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17" t="s">
-        <v>46</v>
-      </c>
-      <c r="U17" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1756,64 +1720,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="O18" t="s">
-        <v>42</v>
-      </c>
       <c r="P18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="R18" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U18" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1821,34 +1785,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L19" t="s">
         <v>40</v>
@@ -1857,28 +1821,28 @@
         <v>50</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1886,19 +1850,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>41</v>
@@ -1910,40 +1874,40 @@
         <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1951,64 +1915,64 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
         <v>45</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" t="s">
+        <v>43</v>
+      </c>
+      <c r="S21" t="s">
         <v>46</v>
       </c>
-      <c r="O21" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" t="s">
-        <v>51</v>
-      </c>
-      <c r="S21" t="s">
-        <v>51</v>
-      </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2019,10 +1983,10 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>34</v>
@@ -2031,49 +1995,49 @@
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2084,34 +2048,34 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
         <v>36</v>
       </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
         <v>36</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
@@ -2120,7 +2084,7 @@
         <v>40</v>
       </c>
       <c r="O23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" t="s">
         <v>40</v>
@@ -2129,16 +2093,16 @@
         <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="T23" t="s">
         <v>40</v>
       </c>
       <c r="U23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2146,64 +2110,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
       </c>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J24" t="s">
         <v>36</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L24" t="s">
         <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="R24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s">
         <v>37</v>
-      </c>
-      <c r="U24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2211,64 +2175,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K25" t="s">
         <v>37</v>
       </c>
       <c r="L25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="N25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q25" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" t="s">
         <v>43</v>
-      </c>
-      <c r="S25" t="s">
-        <v>37</v>
       </c>
       <c r="T25" t="s">
         <v>43</v>
       </c>
       <c r="U25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2279,7 +2243,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>39</v>
@@ -2288,52 +2252,52 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
         <v>38</v>
       </c>
       <c r="N26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S26" t="s">
         <v>41</v>
       </c>
       <c r="T26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2341,37 +2305,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M27" t="s">
         <v>42</v>
@@ -2380,25 +2344,22 @@
         <v>42</v>
       </c>
       <c r="O27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R27" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="T27" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2409,7 +2370,7 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
         <v>41</v>
@@ -2418,52 +2379,49 @@
         <v>41</v>
       </c>
       <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
         <v>37</v>
       </c>
-      <c r="G28" t="s">
-        <v>38</v>
-      </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
       </c>
       <c r="O28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S28" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s">
-        <v>34</v>
-      </c>
-      <c r="U28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2471,64 +2429,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" t="s">
+      <c r="H29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" t="s">
+        <v>38</v>
+      </c>
+      <c r="P29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" t="s">
         <v>45</v>
       </c>
-      <c r="F29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" t="s">
-        <v>46</v>
-      </c>
-      <c r="N29" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" t="s">
-        <v>45</v>
-      </c>
-      <c r="P29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>35</v>
-      </c>
       <c r="R29" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="S29" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="U29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2539,61 +2497,61 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="M30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="N30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O30" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
         <v>45</v>
       </c>
       <c r="T30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2601,10 +2559,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
@@ -2625,16 +2583,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N31" t="s">
         <v>42</v>
@@ -2643,7 +2601,7 @@
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q31" t="s">
         <v>40</v>
@@ -2652,10 +2610,10 @@
         <v>40</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U31" t="s">
         <v>40</v>
@@ -2666,64 +2624,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
       </c>
       <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
         <v>43</v>
       </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
         <v>43</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K32" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="M32" t="s">
+        <v>41</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O32" t="s">
+        <v>38</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>38</v>
+      </c>
+      <c r="R32" t="s">
         <v>43</v>
       </c>
-      <c r="L32" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="S32" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" t="s">
+        <v>34</v>
+      </c>
+      <c r="U32" t="s">
         <v>36</v>
-      </c>
-      <c r="N32" t="s">
-        <v>41</v>
-      </c>
-      <c r="O32" t="s">
-        <v>41</v>
-      </c>
-      <c r="P32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>41</v>
-      </c>
-      <c r="R32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S32" t="s">
-        <v>41</v>
-      </c>
-      <c r="T32" t="s">
-        <v>36</v>
-      </c>
-      <c r="U32" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2731,64 +2689,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s">
-        <v>46</v>
-      </c>
-      <c r="J33" t="s">
-        <v>45</v>
-      </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="T33" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="U33" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2796,10 +2754,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -2808,52 +2766,52 @@
         <v>38</v>
       </c>
       <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="L34" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" t="s">
         <v>37</v>
       </c>
-      <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M34" t="s">
-        <v>36</v>
-      </c>
       <c r="N34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R34" t="s">
         <v>36</v>
       </c>
       <c r="S34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T34" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="U34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2861,64 +2819,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H35" t="s">
         <v>41</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q35" t="s">
         <v>39</v>
       </c>
       <c r="R35" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="S35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T35" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2960,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2992,7 +2950,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3008,7 +2966,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3024,7 +2982,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3032,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3040,7 +2998,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3048,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3056,7 +3014,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3088,7 +3046,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3120,7 +3078,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3152,7 +3110,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3234,7 +3192,7 @@
         <v>54</v>
       </c>
       <c r="B2">
-        <v>0.07131280388978931</v>
+        <v>0.06969205834683954</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3242,7 +3200,7 @@
         <v>55</v>
       </c>
       <c r="B3">
-        <v>0.01642335766423358</v>
+        <v>0.0145985401459854</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3250,7 +3208,7 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <v>0.03177257525083612</v>
+        <v>0.03010033444816054</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3258,7 +3216,7 @@
         <v>57</v>
       </c>
       <c r="B5">
-        <v>0.01669449081803005</v>
+        <v>0.01335559265442404</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3266,7 +3224,7 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>0.01877133105802048</v>
+        <v>0.01706484641638225</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3274,7 +3232,7 @@
         <v>59</v>
       </c>
       <c r="B7">
-        <v>0.2358156028368794</v>
+        <v>0.2304964539007092</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3282,7 +3240,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.1253263707571801</v>
+        <v>0.1227154046997389</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3290,7 +3248,7 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>0.008450704225352112</v>
+        <v>0.01971830985915493</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3298,7 +3256,7 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>0.06467661691542288</v>
+        <v>0.06218905472636816</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3306,7 +3264,7 @@
         <v>63</v>
       </c>
       <c r="B11">
-        <v>0.07824427480916031</v>
+        <v>0.0648854961832061</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3314,7 +3272,7 @@
         <v>64</v>
       </c>
       <c r="B12">
-        <v>0.01821493624772313</v>
+        <v>0.01457194899817851</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3322,7 +3280,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>0.006993006993006993</v>
+        <v>0.005244755244755245</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3354,7 +3312,7 @@
         <v>69</v>
       </c>
       <c r="B17">
-        <v>0.1132478632478632</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3394,7 +3352,7 @@
         <v>74</v>
       </c>
       <c r="B22">
-        <v>0.03703703703703703</v>
+        <v>0.03240740740740741</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3402,7 +3360,7 @@
         <v>75</v>
       </c>
       <c r="B23">
-        <v>0.04186046511627907</v>
+        <v>0.03255813953488372</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3410,7 +3368,7 @@
         <v>76</v>
       </c>
       <c r="B24">
-        <v>0.045662100456621</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3418,7 +3376,7 @@
         <v>77</v>
       </c>
       <c r="B25">
-        <v>0.0154639175257732</v>
+        <v>0.01030927835051546</v>
       </c>
     </row>
   </sheetData>
@@ -3444,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.115</v>
+        <v>0.1133333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3468,7 +3426,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1133333333333333</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3508,7 +3466,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.115</v>
+        <v>0.1133333333333333</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3564,7 +3522,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.01785714285714286</v>
+        <v>0.00992063492063492</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3580,7 +3538,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.01116071428571429</v>
+        <v>0.008928571428571428</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3588,7 +3546,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.115</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3596,7 +3554,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.02718446601941748</v>
+        <v>0.01747572815533981</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -3718,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -3739,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -3757,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3792,13 +3750,13 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -3872,13 +3830,13 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3949,19 +3907,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3979,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -3997,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4112,13 +4070,13 @@
         <v>4</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4349,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>7</v>
@@ -4361,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -4379,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -4397,16 +4355,16 @@
         <v>0</v>
       </c>
       <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>1</v>
       </c>
-      <c r="X10">
-        <v>2</v>
-      </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -4512,19 +4470,19 @@
         <v>5</v>
       </c>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4752,16 +4710,16 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -4909,64 +4867,64 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>5</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5069,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5126,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5134,22 +5092,22 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -5158,31 +5116,31 @@
         <v>2</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
         <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-      <c r="R20">
-        <v>2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5206,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5223,17 +5181,17 @@
         <v>0</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
         <v>0</v>
       </c>
@@ -5241,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -5259,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -5274,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -5286,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5294,41 +5252,41 @@
         <v>79</v>
       </c>
       <c r="B22">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="F22">
-        <v>11</v>
-      </c>
       <c r="G22">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22">
+        <v>34</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22">
         <v>3</v>
       </c>
-      <c r="J22">
-        <v>26</v>
-      </c>
-      <c r="K22">
-        <v>41</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
       <c r="N22">
         <v>0</v>
       </c>
@@ -5339,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R22">
         <v>11</v>
@@ -5354,19 +5312,19 @@
         <v>0</v>
       </c>
       <c r="V22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W22">
+        <v>7</v>
+      </c>
+      <c r="X22">
         <v>9</v>
       </c>
-      <c r="X22">
-        <v>10</v>
-      </c>
       <c r="Y22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z22">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5407,16 +5365,16 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5424,19 +5382,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5444,19 +5402,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5464,19 +5422,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
         <v>80</v>
       </c>
-      <c r="C5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
-      </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5484,19 +5442,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5504,19 +5462,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5524,19 +5482,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5544,19 +5502,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5564,19 +5522,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5584,19 +5542,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5604,19 +5562,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5627,16 +5585,16 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5644,19 +5602,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5664,19 +5622,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5684,19 +5642,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5704,19 +5662,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5724,19 +5682,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5744,19 +5702,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5764,19 +5722,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5784,19 +5742,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5804,19 +5762,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5824,19 +5782,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5844,19 +5802,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -5864,7 +5822,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>81</v>
@@ -5873,10 +5831,10 @@
         <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5884,19 +5842,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5904,19 +5862,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5924,10 +5882,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
@@ -5944,19 +5902,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5964,19 +5922,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -5984,19 +5942,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
         <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6007,16 +5965,16 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6024,19 +5982,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6044,19 +6002,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
         <v>81</v>
       </c>
-      <c r="C34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" t="s">
-        <v>84</v>
-      </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6064,19 +6022,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/其他資訊_2019_4.xlsx
+++ b/其他資訊_2019_4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="89">
   <si>
     <t>Abe</t>
   </si>
@@ -123,57 +123,57 @@
     <t>Yvette</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
     <t>CD</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>N1</t>
-  </si>
-  <si>
-    <t>OB</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P4</t>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>W6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -261,34 +261,31 @@
     <t>SUM_per_time</t>
   </si>
   <si>
+    <t>['11:30', '12:30']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:00']</t>
+  </si>
+  <si>
+    <t>['11:30', '13:30']</t>
+  </si>
+  <si>
+    <t>['11:30']</t>
+  </si>
+  <si>
     <t>['11:30', '12:00']</t>
   </si>
   <si>
-    <t>['11:30', '13:00']</t>
-  </si>
-  <si>
-    <t>['11:30', '12:30']</t>
-  </si>
-  <si>
-    <t>['11:30', '13:30']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['12:30']</t>
   </si>
   <si>
+    <t>['13:00']</t>
+  </si>
+  <si>
+    <t>['12:00']</t>
+  </si>
+  <si>
     <t>['13:30']</t>
-  </si>
-  <si>
-    <t>['11:30']</t>
-  </si>
-  <si>
-    <t>['13:00']</t>
-  </si>
-  <si>
-    <t>['12:00']</t>
   </si>
 </sst>
 </file>
@@ -722,58 +719,58 @@
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="U2" t="s">
         <v>40</v>
@@ -787,61 +784,61 @@
         <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -852,61 +849,61 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
         <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="N4" t="s">
         <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -920,49 +917,49 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
         <v>40</v>
@@ -971,7 +968,7 @@
         <v>40</v>
       </c>
       <c r="U5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -979,58 +976,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s">
         <v>41</v>
+      </c>
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1038,58 +1041,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="S7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="s">
-        <v>45</v>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1100,58 +1109,61 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
         <v>43</v>
       </c>
-      <c r="J8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="T8" t="s">
         <v>43</v>
       </c>
-      <c r="L8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" t="s">
-        <v>34</v>
+      <c r="U8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1159,64 +1171,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
         <v>37</v>
       </c>
-      <c r="J9" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R9" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" t="s">
-        <v>35</v>
-      </c>
       <c r="U9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1236,46 +1248,52 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O10" t="s">
         <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
+        <v>47</v>
+      </c>
+      <c r="T10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1283,64 +1301,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s">
         <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
         <v>34</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="T11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U11" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1348,64 +1366,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S12" t="s">
         <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1413,19 +1431,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
@@ -1434,43 +1452,43 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
         <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1478,64 +1496,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="T14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1543,58 +1561,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="T15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1602,64 +1626,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
-        <v>36</v>
-      </c>
       <c r="Q16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="S16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1667,52 +1691,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17" t="s">
+        <v>46</v>
+      </c>
+      <c r="U17" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O17" t="s">
-        <v>42</v>
-      </c>
-      <c r="P17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1720,64 +1756,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="s">
+        <v>50</v>
+      </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" t="s">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" t="s">
-        <v>50</v>
-      </c>
-      <c r="T18" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1785,64 +1821,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
         <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L19" t="s">
         <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="O19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q19" t="s">
         <v>45</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T19" t="s">
         <v>45</v>
       </c>
       <c r="U19" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1850,64 +1886,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1915,61 +1951,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s">
-        <v>36</v>
-      </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="K21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="L21" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N21" t="s">
         <v>45</v>
       </c>
       <c r="O21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U21" t="s">
         <v>46</v>
@@ -1980,64 +2016,64 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L22" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="U22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2045,37 +2081,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23" t="s">
         <v>40</v>
@@ -2084,7 +2120,7 @@
         <v>40</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
         <v>40</v>
@@ -2093,16 +2129,16 @@
         <v>40</v>
       </c>
       <c r="R23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" t="s">
         <v>51</v>
-      </c>
-      <c r="S23" t="s">
-        <v>34</v>
       </c>
       <c r="T23" t="s">
         <v>40</v>
       </c>
       <c r="U23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2110,64 +2146,64 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I24" t="s">
         <v>34</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K24" t="s">
         <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="R24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="U24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2175,64 +2211,64 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" t="s">
         <v>43</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
         <v>43</v>
       </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" t="s">
-        <v>39</v>
-      </c>
-      <c r="O25" t="s">
-        <v>39</v>
-      </c>
-      <c r="P25" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R25" t="s">
-        <v>38</v>
-      </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2240,46 +2276,46 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M26" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N26" t="s">
         <v>39</v>
       </c>
       <c r="O26" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="P26" t="s">
         <v>39</v>
@@ -2288,16 +2324,16 @@
         <v>34</v>
       </c>
       <c r="R26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2305,61 +2341,64 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N27" t="s">
         <v>42</v>
       </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" t="s">
+        <v>51</v>
+      </c>
+      <c r="S27" t="s">
         <v>45</v>
       </c>
-      <c r="Q27" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" t="s">
-        <v>49</v>
-      </c>
-      <c r="S27" t="s">
-        <v>47</v>
-      </c>
       <c r="T27" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="U27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2370,58 +2409,61 @@
         <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N28" t="s">
         <v>40</v>
       </c>
       <c r="O28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="S28" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T28" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="U28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2429,64 +2471,64 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="H29" t="s">
+      <c r="M29" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" t="s">
+        <v>34</v>
+      </c>
+      <c r="O29" t="s">
         <v>45</v>
       </c>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29" t="s">
-        <v>44</v>
-      </c>
-      <c r="N29" t="s">
-        <v>44</v>
-      </c>
-      <c r="O29" t="s">
-        <v>38</v>
-      </c>
       <c r="P29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q29" t="s">
         <v>45</v>
       </c>
       <c r="R29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2500,58 +2542,58 @@
         <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
         <v>38</v>
       </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N30" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="R30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="T30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2559,10 +2601,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
@@ -2583,25 +2625,25 @@
         <v>40</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L31" t="s">
         <v>45</v>
       </c>
       <c r="M31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" t="s">
         <v>50</v>
-      </c>
-      <c r="N31" t="s">
-        <v>42</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q31" t="s">
         <v>40</v>
@@ -2613,7 +2655,7 @@
         <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U31" t="s">
         <v>40</v>
@@ -2624,64 +2666,64 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s">
         <v>43</v>
       </c>
-      <c r="H32" t="s">
-        <v>38</v>
-      </c>
       <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" t="s">
         <v>43</v>
       </c>
-      <c r="J32" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" t="s">
-        <v>36</v>
-      </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P32" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R32" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="T32" t="s">
         <v>34</v>
       </c>
       <c r="U32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2689,64 +2731,64 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>35</v>
+      </c>
+      <c r="R33" t="s">
         <v>38</v>
       </c>
-      <c r="D33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J33" t="s">
-        <v>46</v>
-      </c>
-      <c r="K33" t="s">
-        <v>38</v>
-      </c>
-      <c r="L33" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" t="s">
-        <v>41</v>
-      </c>
-      <c r="P33" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>41</v>
-      </c>
-      <c r="R33" t="s">
-        <v>41</v>
-      </c>
       <c r="S33" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="T33" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="U33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2757,61 +2799,61 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O34" t="s">
         <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="R34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="T34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="U34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2819,64 +2861,64 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="M35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O35" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="P35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="S35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="U35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2918,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2966,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2990,7 +3032,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2998,7 +3040,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3006,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3014,7 +3056,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3046,7 +3088,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3062,7 +3104,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3094,7 +3136,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3110,7 +3152,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3158,7 +3200,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3192,7 +3234,7 @@
         <v>54</v>
       </c>
       <c r="B2">
-        <v>0.06969205834683954</v>
+        <v>0.07131280388978931</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3200,7 +3242,7 @@
         <v>55</v>
       </c>
       <c r="B3">
-        <v>0.0145985401459854</v>
+        <v>0.01642335766423358</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3208,7 +3250,7 @@
         <v>56</v>
       </c>
       <c r="B4">
-        <v>0.03010033444816054</v>
+        <v>0.03177257525083612</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3216,7 +3258,7 @@
         <v>57</v>
       </c>
       <c r="B5">
-        <v>0.01335559265442404</v>
+        <v>0.01502504173622705</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3224,7 +3266,7 @@
         <v>58</v>
       </c>
       <c r="B6">
-        <v>0.01706484641638225</v>
+        <v>0.01877133105802048</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3232,7 +3274,7 @@
         <v>59</v>
       </c>
       <c r="B7">
-        <v>0.2304964539007092</v>
+        <v>0.2375886524822695</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3240,7 +3282,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>0.1227154046997389</v>
+        <v>0.1540469973890339</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3248,7 +3290,7 @@
         <v>61</v>
       </c>
       <c r="B9">
-        <v>0.01971830985915493</v>
+        <v>0.01408450704225352</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3256,7 +3298,7 @@
         <v>62</v>
       </c>
       <c r="B10">
-        <v>0.06218905472636816</v>
+        <v>0.04975124378109453</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3264,7 +3306,7 @@
         <v>63</v>
       </c>
       <c r="B11">
-        <v>0.0648854961832061</v>
+        <v>0.07251908396946564</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3272,7 +3314,7 @@
         <v>64</v>
       </c>
       <c r="B12">
-        <v>0.01457194899817851</v>
+        <v>0.009107468123861567</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3280,7 +3322,7 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>0.005244755244755245</v>
+        <v>0.006993006993006993</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3312,7 +3354,7 @@
         <v>69</v>
       </c>
       <c r="B17">
-        <v>0.1111111111111111</v>
+        <v>0.1153846153846154</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3320,7 +3362,7 @@
         <v>70</v>
       </c>
       <c r="B18">
-        <v>0.02798982188295165</v>
+        <v>0.03053435114503817</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3352,7 +3394,7 @@
         <v>74</v>
       </c>
       <c r="B22">
-        <v>0.03240740740740741</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3360,7 +3402,7 @@
         <v>75</v>
       </c>
       <c r="B23">
-        <v>0.03255813953488372</v>
+        <v>0.03720930232558139</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3426,7 +3468,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.115</v>
+        <v>0.1133333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3506,7 +3548,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>0.09333333333333334</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3522,7 +3564,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>0.00992063492063492</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3538,7 +3580,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.008928571428571428</v>
+        <v>0.01116071428571429</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3546,7 +3588,7 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>0.095</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3554,7 +3596,7 @@
         <v>30</v>
       </c>
       <c r="B21">
-        <v>0.01747572815533981</v>
+        <v>0.02524271844660194</v>
       </c>
     </row>
   </sheetData>
@@ -3670,19 +3712,19 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -3750,16 +3792,16 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3830,19 +3872,19 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3907,19 +3949,19 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
       <c r="K5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -3937,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -3955,16 +3997,16 @@
         <v>0</v>
       </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>1</v>
       </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4070,13 +4112,13 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -4310,19 +4352,19 @@
         <v>14</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>8</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -4470,19 +4512,19 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4707,64 +4749,64 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
         <v>1</v>
       </c>
-      <c r="J15">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
         <v>2</v>
       </c>
-      <c r="K15">
-        <v>6</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1</v>
       </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
       <c r="Z15">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4867,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4876,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4915,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -4924,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -5027,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -5084,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -5092,41 +5134,41 @@
         <v>29</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
@@ -5137,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -5164,7 +5206,7 @@
         <v>1</v>
       </c>
       <c r="Z20">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -5187,13 +5229,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -5217,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -5232,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -5244,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -5252,70 +5294,70 @@
         <v>79</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>134</v>
+      </c>
+      <c r="H22">
+        <v>59</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>38</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>54</v>
+      </c>
+      <c r="R22">
+        <v>12</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
         <v>8</v>
       </c>
-      <c r="D22">
-        <v>18</v>
-      </c>
-      <c r="E22">
+      <c r="W22">
         <v>8</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>130</v>
-      </c>
-      <c r="H22">
-        <v>47</v>
-      </c>
-      <c r="I22">
-        <v>7</v>
-      </c>
-      <c r="J22">
-        <v>25</v>
-      </c>
-      <c r="K22">
-        <v>34</v>
-      </c>
-      <c r="L22">
-        <v>8</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>52</v>
-      </c>
-      <c r="R22">
-        <v>11</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>7</v>
-      </c>
-      <c r="W22">
-        <v>7</v>
       </c>
       <c r="X22">
         <v>9</v>
@@ -5324,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="Z22">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -5365,16 +5407,16 @@
         <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5382,19 +5424,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5405,10 +5447,10 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
         <v>85</v>
@@ -5422,19 +5464,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5442,19 +5484,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5465,16 +5507,16 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5482,19 +5524,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5502,19 +5544,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5522,19 +5564,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5542,19 +5584,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5562,19 +5604,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5582,19 +5624,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
         <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5602,19 +5644,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5622,19 +5664,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
         <v>82</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5645,10 +5687,10 @@
         <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
         <v>85</v>
@@ -5662,19 +5704,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5682,19 +5724,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
-        <v>89</v>
-      </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5702,19 +5744,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" t="s">
         <v>88</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>85</v>
       </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5722,19 +5764,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5742,19 +5784,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
         <v>80</v>
       </c>
-      <c r="D21" t="s">
-        <v>83</v>
-      </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5762,19 +5804,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
         <v>80</v>
       </c>
-      <c r="E22" t="s">
-        <v>82</v>
-      </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5782,19 +5824,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -5802,13 +5844,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
         <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
         <v>81</v>
@@ -5822,19 +5864,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5842,19 +5884,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5862,19 +5904,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -5882,19 +5924,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -5902,19 +5944,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -5922,13 +5964,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
         <v>86</v>
@@ -5942,19 +5984,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5962,13 +6004,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
         <v>80</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
       </c>
       <c r="E32" t="s">
         <v>80</v>
@@ -5982,19 +6024,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D33" t="s">
         <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6005,10 +6047,10 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
         <v>80</v>
@@ -6022,19 +6064,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
